--- a/docs/Extension-CareConnect-MedicationQuantityText-1.xlsx
+++ b/docs/Extension-CareConnect-MedicationQuantityText-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AJ$7</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="74">
   <si>
     <t>Path</t>
   </si>
@@ -122,6 +122,9 @@
     <t>Constraint(s)</t>
   </si>
   <si>
+    <t>Mapping: RIM Mapping</t>
+  </si>
+  <si>
     <t>Extension</t>
   </si>
   <si>
@@ -138,9 +141,6 @@
   </si>
   <si>
     <t>Quantity representation.</t>
-  </si>
-  <si>
-    <t>Element</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -167,14 +167,10 @@
     <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
-    <t>Note that FHIR strings may not exceed 1MB in size</t>
-  </si>
-  <si>
     <t>Element.id</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-</t>
+    <t>n/a</t>
   </si>
   <si>
     <t>Extension.extension</t>
@@ -229,16 +225,26 @@
     <t>https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-CareConnect-MedicationQuantityText-1</t>
   </si>
   <si>
-    <t>Extension.valueString</t>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
   </si>
   <si>
     <t>valueString</t>
-  </si>
-  <si>
-    <t>A stream of bytes, base64 encoded</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
   </si>
 </sst>
 </file>
@@ -387,7 +393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AI6"/>
+  <dimension ref="A1:AJ7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -396,7 +402,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="20.30078125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="19.00390625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.3828125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
@@ -431,6 +437,7 @@
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
+    <col min="36" max="36" width="22.671875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,102 +546,108 @@
       <c r="AI1" t="s" s="1">
         <v>34</v>
       </c>
+      <c r="AJ1" t="s" s="1">
+        <v>35</v>
+      </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R2" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S2" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T2" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U2" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V2" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W2" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X2" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y2" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z2" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA2" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB2" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC2" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD2" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE2" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="R2" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S2" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T2" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U2" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V2" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W2" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X2" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Y2" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z2" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA2" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB2" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC2" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD2" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE2" t="s" s="2">
-        <v>41</v>
-      </c>
       <c r="AF2" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>43</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
+        <v>37</v>
       </c>
     </row>
     <row r="3" hidden="true">
@@ -643,23 +656,23 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s" s="2">
         <v>45</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J3" t="s" s="2">
         <v>46</v>
@@ -670,178 +683,182 @@
       <c r="L3" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="M3" t="s" s="2">
-        <v>49</v>
-      </c>
+      <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>51</v>
+        <v>37</v>
+      </c>
+      <c r="AJ3" t="s" s="2">
+        <v>50</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J4" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>55</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>56</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>57</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AA4" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AB4" t="s" s="2">
         <v>58</v>
       </c>
-      <c r="AB4" t="s" s="2">
+      <c r="AC4" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD4" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="AC4" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD4" t="s" s="2">
+      <c r="AE4" t="s" s="2">
         <v>60</v>
       </c>
-      <c r="AE4" t="s" s="2">
-        <v>61</v>
-      </c>
       <c r="AF4" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>43</v>
+        <v>37</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
+        <v>50</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
@@ -851,75 +868,75 @@
         <v>45</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>63</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>65</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>66</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>45</v>
@@ -928,115 +945,217 @@
         <v>45</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>51</v>
+        <v>37</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
+        <v>67</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
         <v>68</v>
       </c>
-      <c r="B6" t="s" s="2">
-        <v>69</v>
-      </c>
+      <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>45</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J6" t="s" s="2">
         <v>46</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="M6" t="s" s="2">
         <v>70</v>
       </c>
+      <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="AB6" s="2"/>
       <c r="AC6" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>51</v>
+        <v>37</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" hidden="true">
+      <c r="A7" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P7" s="2"/>
+      <c r="Q7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE7" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AI6">
+  <autoFilter ref="A1:AJ7">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -1046,7 +1165,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI5">
+  <conditionalFormatting sqref="A2:AI6">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
